--- a/doc/詳細設計/trip_db_定義書.xlsx
+++ b/doc/詳細設計/trip_db_定義書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="222">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -281,10 +281,6 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1119,6 +1115,14 @@
     <rPh sb="2" eb="3">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2122,15 +2126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2165,6 +2160,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2696,7 +2700,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -2718,7 +2722,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -2800,7 +2804,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -2837,7 +2841,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -2891,7 +2895,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -3139,14 +3143,14 @@
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76"/>
       <c r="J23" s="76"/>
       <c r="K23" s="76"/>
       <c r="L23" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
@@ -3191,14 +3195,14 @@
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
       <c r="L24" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
@@ -3239,14 +3243,14 @@
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
       <c r="L25" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
@@ -3279,7 +3283,7 @@
     </row>
     <row r="26" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="83"/>
       <c r="C26" s="81"/>
@@ -3321,7 +3325,7 @@
     </row>
     <row r="28" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3332,17 +3336,17 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
@@ -3354,21 +3358,21 @@
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R29" s="59"/>
       <c r="S29" s="59"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
@@ -3387,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -3437,7 +3441,7 @@
     </row>
     <row r="32" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -3448,24 +3452,24 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -3499,21 +3503,21 @@
         <v>1</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="81"/>
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M34" s="81"/>
       <c r="N34" s="81"/>
@@ -3553,7 +3557,7 @@
     </row>
     <row r="36" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3564,17 +3568,17 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -3586,7 +3590,7 @@
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R37" s="59"/>
       <c r="S37" s="59"/>
@@ -3598,7 +3602,7 @@
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
@@ -3654,7 +3658,7 @@
     </row>
     <row r="39" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="22"/>
       <c r="G39" s="22"/>
@@ -3684,17 +3688,17 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
       <c r="G40" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -3706,7 +3710,7 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R40" s="59"/>
       <c r="S40" s="59"/>
@@ -3718,7 +3722,7 @@
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
@@ -3774,7 +3778,7 @@
     </row>
     <row r="42" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="22"/>
       <c r="G42" s="22"/>
@@ -3804,17 +3808,17 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
@@ -3826,7 +3830,7 @@
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R43" s="59"/>
       <c r="S43" s="59"/>
@@ -3838,7 +3842,7 @@
       <c r="Y43" s="59"/>
       <c r="Z43" s="59"/>
       <c r="AA43" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB43" s="59"/>
       <c r="AC43" s="59"/>
@@ -3894,7 +3898,7 @@
     </row>
     <row r="46" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3905,10 +3909,10 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -3920,7 +3924,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
       <c r="L47" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M47" s="59"/>
       <c r="N47" s="59"/>
@@ -3954,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -3998,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -4042,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -4086,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -4130,7 +4134,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -4174,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -4218,7 +4222,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -4262,7 +4266,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -4306,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -4350,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -4394,7 +4398,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -4438,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -4482,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -4526,7 +4530,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -4570,7 +4574,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -4614,7 +4618,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -4658,7 +4662,7 @@
         <v>17</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -4702,7 +4706,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="76"/>
       <c r="D65" s="76"/>
@@ -4746,7 +4750,7 @@
         <v>19</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="76"/>
       <c r="D66" s="76"/>
@@ -4790,7 +4794,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="76"/>
       <c r="D67" s="76"/>
@@ -4834,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="81"/>
       <c r="D68" s="81"/>
@@ -5201,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5350,7 +5354,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -5369,7 +5373,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -5391,7 +5395,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -5473,7 +5477,7 @@
     </row>
     <row r="15" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5508,7 +5512,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -5562,7 +5566,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -5593,28 +5597,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
       <c r="L18" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -5628,7 +5632,7 @@
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
@@ -5647,28 +5651,28 @@
         <v>3</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -5704,21 +5708,21 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
@@ -5758,28 +5762,28 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W21" s="76"/>
       <c r="X21" s="76"/>
@@ -5812,28 +5816,28 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
       <c r="L22" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="76"/>
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W22" s="76"/>
       <c r="X22" s="76"/>
@@ -5856,7 +5860,7 @@
     </row>
     <row r="23" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="83"/>
       <c r="C23" s="81"/>
@@ -5898,7 +5902,7 @@
     </row>
     <row r="25" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -5909,17 +5913,17 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="59"/>
@@ -5931,21 +5935,21 @@
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R26" s="59"/>
       <c r="S26" s="59"/>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W26" s="59"/>
       <c r="X26" s="59"/>
       <c r="Y26" s="59"/>
       <c r="Z26" s="59"/>
       <c r="AA26" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
@@ -5964,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -6014,7 +6018,7 @@
     </row>
     <row r="29" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -6025,24 +6029,24 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -6076,21 +6080,21 @@
         <v>1</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M31" s="81"/>
       <c r="N31" s="81"/>
@@ -6130,7 +6134,7 @@
     </row>
     <row r="33" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -6141,17 +6145,17 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -6163,7 +6167,7 @@
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R34" s="59"/>
       <c r="S34" s="59"/>
@@ -6175,7 +6179,7 @@
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
       <c r="AA34" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
@@ -6231,7 +6235,7 @@
     </row>
     <row r="36" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="25"/>
       <c r="G36" s="25"/>
@@ -6261,17 +6265,17 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -6283,7 +6287,7 @@
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R37" s="59"/>
       <c r="S37" s="59"/>
@@ -6295,7 +6299,7 @@
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
@@ -6351,7 +6355,7 @@
     </row>
     <row r="39" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="25"/>
       <c r="G39" s="25"/>
@@ -6381,17 +6385,17 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
       <c r="G40" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -6403,7 +6407,7 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R40" s="59"/>
       <c r="S40" s="59"/>
@@ -6415,7 +6419,7 @@
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
@@ -6471,7 +6475,7 @@
     </row>
     <row r="43" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -6482,10 +6486,10 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -6497,7 +6501,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
       <c r="L44" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M44" s="59"/>
       <c r="N44" s="59"/>
@@ -6531,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
@@ -6575,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
@@ -6619,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
@@ -6663,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -6707,7 +6711,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -6751,7 +6755,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -6795,7 +6799,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -6839,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -6883,7 +6887,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -6927,7 +6931,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -6971,7 +6975,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -7015,7 +7019,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -7059,7 +7063,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -7103,7 +7107,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -7147,7 +7151,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -7191,7 +7195,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -7235,7 +7239,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -7279,7 +7283,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -7323,7 +7327,7 @@
         <v>19</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -7367,7 +7371,7 @@
         <v>20</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -7411,7 +7415,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="81"/>
       <c r="D65" s="81"/>
@@ -7744,15 +7748,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -7774,7 +7778,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>15</v>
@@ -7791,7 +7795,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3" s="59"/>
       <c r="O3" s="59"/>
@@ -7805,14 +7809,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="76"/>
       <c r="E4" s="76"/>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
       <c r="H4" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
@@ -7831,14 +7835,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
       <c r="H5" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
@@ -7857,14 +7861,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
       <c r="F6" s="76"/>
       <c r="G6" s="76"/>
       <c r="H6" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
@@ -7910,14 +7914,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
       <c r="H8" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -7937,14 +7941,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="76"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
       <c r="H9" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
@@ -8107,20 +8111,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="96"/>
@@ -8128,7 +8132,7 @@
       <c r="F3" s="97"/>
       <c r="G3"/>
       <c r="H3" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="96"/>
       <c r="J3" s="96"/>
@@ -8136,7 +8140,7 @@
       <c r="L3" s="97"/>
       <c r="M3"/>
       <c r="N3" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O3" s="96"/>
       <c r="P3" s="96"/>
@@ -8145,27 +8149,27 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B4" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="105"/>
       <c r="D4" s="105"/>
       <c r="E4" s="105"/>
       <c r="F4" s="106"/>
       <c r="G4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="N4" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="105"/>
       <c r="P4" s="105"/>
@@ -8173,33 +8177,33 @@
       <c r="R4" s="106"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B5" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="B5" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
       <c r="G5"/>
-      <c r="H5" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="H5" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
       <c r="M5"/>
-      <c r="N5" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="119"/>
+      <c r="N5" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="116"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B6" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -8213,7 +8217,7 @@
       <c r="L6" s="94"/>
       <c r="M6"/>
       <c r="N6" s="78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
@@ -8222,7 +8226,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B7" s="78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -8243,7 +8247,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B8" s="78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -8262,13 +8266,13 @@
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="B9" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -8303,10 +8307,10 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -8320,10 +8324,10 @@
     </row>
     <row r="13" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -8333,35 +8337,35 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
       <c r="F14" s="97"/>
       <c r="H14" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I14" s="96"/>
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
       <c r="L14" s="97"/>
       <c r="N14" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O14" s="96"/>
       <c r="P14" s="96"/>
       <c r="Q14" s="96"/>
       <c r="R14" s="97"/>
       <c r="T14" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U14" s="96"/>
       <c r="V14" s="96"/>
       <c r="W14" s="96"/>
       <c r="X14" s="97"/>
       <c r="Z14" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA14" s="96"/>
       <c r="AB14" s="96"/>
@@ -8369,94 +8373,94 @@
       <c r="AD14" s="97"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B15" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
+      <c r="B15" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="105"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
       <c r="L15" s="106"/>
       <c r="M15" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="N15" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
+        <v>194</v>
+      </c>
+      <c r="N15" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="125"/>
       <c r="S15" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T15" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U15" s="105"/>
       <c r="V15" s="105"/>
       <c r="W15" s="105"/>
       <c r="X15" s="106"/>
       <c r="Y15" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z15" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z15" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="125"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="B16" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
+      <c r="H16" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="N16" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="T16" s="126" t="s">
         <v>185</v>
-      </c>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="113"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B16" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="H16" s="120" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="N16" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="119"/>
-      <c r="T16" s="126" t="s">
-        <v>186</v>
       </c>
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="127"/>
       <c r="X16" s="128"/>
-      <c r="Z16" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
+      <c r="Z16" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="116"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B17" s="78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -8468,21 +8472,21 @@
       <c r="K17" s="76"/>
       <c r="L17" s="110"/>
       <c r="N17" s="78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O17" s="76"/>
       <c r="P17" s="76"/>
       <c r="Q17" s="76"/>
       <c r="R17" s="110"/>
       <c r="T17" s="78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
       <c r="W17" s="76"/>
       <c r="X17" s="110"/>
       <c r="Z17" s="78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
@@ -8491,7 +8495,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B18" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
@@ -8503,7 +8507,7 @@
       <c r="K18" s="93"/>
       <c r="L18" s="94"/>
       <c r="N18" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
@@ -8515,7 +8519,7 @@
       <c r="W18" s="93"/>
       <c r="X18" s="94"/>
       <c r="Z18" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
@@ -8524,21 +8528,21 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B19" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="110"/>
       <c r="N19" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76"/>
       <c r="R19" s="110"/>
       <c r="Z19" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
@@ -8546,68 +8550,68 @@
       <c r="AD19" s="110"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B20" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="N20" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="125"/>
-      <c r="Z20" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="125"/>
+      <c r="B20" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="N20" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="122"/>
+      <c r="Z20" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="122"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B21" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
       <c r="E21" s="76"/>
       <c r="F21" s="110"/>
       <c r="N21" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76"/>
       <c r="R21" s="110"/>
-      <c r="Z21" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
+      <c r="Z21" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA21" s="115"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="115"/>
+      <c r="AD21" s="116"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B22" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="102"/>
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
       <c r="F22" s="103"/>
       <c r="N22" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O22" s="102"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="102"/>
       <c r="R22" s="103"/>
       <c r="Z22" s="126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA22" s="127"/>
       <c r="AB22" s="127"/>
@@ -8620,20 +8624,20 @@
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="94"/>
-      <c r="N23" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="116"/>
-      <c r="Z23" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="115"/>
-      <c r="AD23" s="116"/>
+      <c r="N23" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="113"/>
+      <c r="Z23" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="113"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N24" s="92"/>
@@ -8642,7 +8646,7 @@
       <c r="Q24" s="93"/>
       <c r="R24" s="94"/>
       <c r="Z24" s="101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA24" s="102"/>
       <c r="AB24" s="102"/>
@@ -8658,29 +8662,29 @@
     </row>
     <row r="27" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B28" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="96"/>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="H28" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="96"/>
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
       <c r="L28" s="97"/>
       <c r="N28" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O28" s="96"/>
       <c r="P28" s="96"/>
@@ -8689,7 +8693,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B29" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="99"/>
       <c r="D29" s="99"/>
@@ -8697,14 +8701,14 @@
       <c r="F29" s="100"/>
       <c r="G29" s="43"/>
       <c r="H29" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I29" s="105"/>
       <c r="J29" s="105"/>
       <c r="K29" s="105"/>
       <c r="L29" s="106"/>
       <c r="N29" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O29" s="99"/>
       <c r="P29" s="99"/>
@@ -8713,7 +8717,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B30" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C30" s="87"/>
       <c r="D30" s="87"/>
@@ -8721,14 +8725,14 @@
       <c r="F30" s="88"/>
       <c r="G30" s="43"/>
       <c r="H30" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I30" s="87"/>
       <c r="J30" s="87"/>
       <c r="K30" s="87"/>
       <c r="L30" s="88"/>
       <c r="N30" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O30" s="87"/>
       <c r="P30" s="87"/>
@@ -8737,7 +8741,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B31" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="102"/>
       <c r="D31" s="102"/>
@@ -8745,14 +8749,14 @@
       <c r="F31" s="103"/>
       <c r="G31" s="43"/>
       <c r="H31" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="87"/>
       <c r="J31" s="87"/>
       <c r="K31" s="87"/>
       <c r="L31" s="88"/>
       <c r="N31" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O31" s="102"/>
       <c r="P31" s="102"/>
@@ -8767,14 +8771,14 @@
       <c r="F32" s="109"/>
       <c r="G32" s="43"/>
       <c r="H32" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="87"/>
       <c r="J32" s="87"/>
       <c r="K32" s="87"/>
       <c r="L32" s="88"/>
       <c r="N32" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O32" s="87"/>
       <c r="P32" s="87"/>
@@ -8789,14 +8793,14 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" s="87"/>
       <c r="J33" s="87"/>
       <c r="K33" s="87"/>
       <c r="L33" s="88"/>
       <c r="N33" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O33" s="87"/>
       <c r="P33" s="87"/>
@@ -8811,14 +8815,14 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="87"/>
       <c r="J34" s="87"/>
       <c r="K34" s="87"/>
       <c r="L34" s="88"/>
       <c r="N34" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O34" s="87"/>
       <c r="P34" s="87"/>
@@ -8832,7 +8836,7 @@
       <c r="K35" s="93"/>
       <c r="L35" s="94"/>
       <c r="N35" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O35" s="87"/>
       <c r="P35" s="87"/>
@@ -8841,7 +8845,7 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="N36" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="87"/>
       <c r="P36" s="87"/>
@@ -8960,7 +8964,7 @@
   <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8980,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
@@ -8993,7 +8997,7 @@
     </row>
     <row r="3" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>11</v>
@@ -9027,7 +9031,7 @@
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
       <c r="G4" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
@@ -9137,7 +9141,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -9156,7 +9160,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -9178,7 +9182,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -9260,12 +9264,12 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>6</v>
@@ -9289,7 +9293,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -9343,7 +9347,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -9374,14 +9378,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -9395,7 +9399,7 @@
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -9424,28 +9428,28 @@
         <v>3</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -9457,7 +9461,7 @@
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
@@ -9471,175 +9475,175 @@
       <c r="AK19" s="76"/>
       <c r="AL19" s="77"/>
     </row>
-    <row r="20" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="129">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
         <v>4</v>
       </c>
-      <c r="B20" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="132"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="132"/>
-      <c r="AJ20" s="132"/>
-      <c r="AK20" s="132"/>
-      <c r="AL20" s="133"/>
-    </row>
-    <row r="21" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="129"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="134"/>
-      <c r="AD21" s="134"/>
-      <c r="AE21" s="134"/>
-      <c r="AF21" s="134"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="134"/>
-      <c r="AJ21" s="134"/>
-      <c r="AK21" s="134"/>
-      <c r="AL21" s="135"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="B20" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="80"/>
+    </row>
+    <row r="21" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="129">
         <v>5</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="80"/>
+      <c r="B21" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="133"/>
+    </row>
+    <row r="22" spans="1:38" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="129"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="134"/>
+      <c r="AK22" s="134"/>
+      <c r="AL22" s="135"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>6</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76"/>
       <c r="J23" s="76"/>
       <c r="K23" s="76"/>
       <c r="L23" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
       <c r="P23" s="76"/>
       <c r="Q23" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="76"/>
@@ -9653,7 +9657,7 @@
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
@@ -9679,21 +9683,21 @@
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
       <c r="L24" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="76"/>
       <c r="P24" s="76"/>
       <c r="Q24" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R24" s="76"/>
       <c r="S24" s="76"/>
@@ -9707,7 +9711,7 @@
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
@@ -9733,35 +9737,35 @@
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
       <c r="L25" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
       <c r="P25" s="76"/>
       <c r="Q25" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R25" s="76"/>
       <c r="S25" s="76"/>
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W25" s="76"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
@@ -9787,35 +9791,35 @@
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="76"/>
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
       <c r="L26" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M26" s="79"/>
       <c r="N26" s="79"/>
       <c r="O26" s="79"/>
       <c r="P26" s="79"/>
       <c r="Q26" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R26" s="76"/>
       <c r="S26" s="76"/>
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W26" s="76"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB26" s="79"/>
       <c r="AC26" s="79"/>
@@ -9831,7 +9835,7 @@
     </row>
     <row r="27" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="83"/>
       <c r="C27" s="81"/>
@@ -9889,7 +9893,7 @@
     </row>
     <row r="29" spans="1:38" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -9907,17 +9911,17 @@
     </row>
     <row r="30" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>102</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>103</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
@@ -9929,21 +9933,21 @@
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R30" s="59"/>
       <c r="S30" s="59"/>
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W30" s="59"/>
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
       <c r="AA30" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
@@ -9962,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
@@ -10019,7 +10023,7 @@
     </row>
     <row r="33" spans="1:38" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -10037,24 +10041,24 @@
     </row>
     <row r="34" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="59" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>109</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="59"/>
@@ -10088,35 +10092,35 @@
         <v>1</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="81"/>
       <c r="I35" s="81"/>
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M35" s="81"/>
       <c r="N35" s="81"/>
       <c r="O35" s="81"/>
       <c r="P35" s="81"/>
       <c r="Q35" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R35" s="81"/>
       <c r="S35" s="81"/>
       <c r="T35" s="81"/>
       <c r="U35" s="81"/>
       <c r="V35" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W35" s="81"/>
       <c r="X35" s="81"/>
@@ -10153,7 +10157,7 @@
     </row>
     <row r="37" spans="1:38" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -10171,17 +10175,17 @@
     </row>
     <row r="38" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
       <c r="G38" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -10193,7 +10197,7 @@
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R38" s="59"/>
       <c r="S38" s="59"/>
@@ -10205,7 +10209,7 @@
       <c r="Y38" s="59"/>
       <c r="Z38" s="59"/>
       <c r="AA38" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
@@ -10261,7 +10265,7 @@
     </row>
     <row r="40" spans="1:38" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="10"/>
       <c r="G40" s="10"/>
@@ -10291,17 +10295,17 @@
     </row>
     <row r="41" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
@@ -10313,7 +10317,7 @@
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R41" s="59"/>
       <c r="S41" s="59"/>
@@ -10325,7 +10329,7 @@
       <c r="Y41" s="59"/>
       <c r="Z41" s="59"/>
       <c r="AA41" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB41" s="59"/>
       <c r="AC41" s="59"/>
@@ -10381,7 +10385,7 @@
     </row>
     <row r="43" spans="1:38" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="10"/>
       <c r="G43" s="10"/>
@@ -10411,17 +10415,17 @@
     </row>
     <row r="44" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
       <c r="G44" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
@@ -10433,7 +10437,7 @@
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R44" s="59"/>
       <c r="S44" s="59"/>
@@ -10445,7 +10449,7 @@
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB44" s="59"/>
       <c r="AC44" s="59"/>
@@ -10511,7 +10515,7 @@
     </row>
     <row r="47" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -10522,10 +10526,10 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -10537,7 +10541,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
       <c r="L48" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M48" s="59"/>
       <c r="N48" s="59"/>
@@ -10571,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -10615,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -10659,7 +10663,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -10703,7 +10707,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -10747,7 +10751,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -10791,7 +10795,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -10835,7 +10839,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -10879,7 +10883,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -10923,7 +10927,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -10967,7 +10971,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -11011,7 +11015,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -11055,7 +11059,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -11099,7 +11103,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -11143,7 +11147,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -11187,7 +11191,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -11231,7 +11235,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -11275,7 +11279,7 @@
         <v>17</v>
       </c>
       <c r="B65" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="76"/>
       <c r="D65" s="76"/>
@@ -11319,7 +11323,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="76"/>
       <c r="D66" s="76"/>
@@ -11363,7 +11367,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="76"/>
       <c r="D67" s="76"/>
@@ -11407,7 +11411,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="76"/>
       <c r="D68" s="76"/>
@@ -11451,7 +11455,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="81"/>
       <c r="D69" s="81"/>
@@ -11492,7 +11496,7 @@
     </row>
   </sheetData>
   <mergeCells count="286">
-    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="Q21:U22"/>
     <mergeCell ref="G66:K66"/>
     <mergeCell ref="Q66:U66"/>
     <mergeCell ref="V66:Z66"/>
@@ -11501,6 +11505,21 @@
     <mergeCell ref="Q67:U67"/>
     <mergeCell ref="V67:Z67"/>
     <mergeCell ref="AA67:AL67"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="Q60:U60"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="AA60:AL60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="Q61:U61"/>
+    <mergeCell ref="V61:Z61"/>
+    <mergeCell ref="AA61:AL61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="Q62:U62"/>
+    <mergeCell ref="V62:Z62"/>
+    <mergeCell ref="AA62:AL62"/>
+    <mergeCell ref="L60:P60"/>
+    <mergeCell ref="L61:P61"/>
+    <mergeCell ref="L62:P62"/>
     <mergeCell ref="G68:K68"/>
     <mergeCell ref="Q68:U68"/>
     <mergeCell ref="V68:Z68"/>
@@ -11522,21 +11541,6 @@
     <mergeCell ref="AA65:AL65"/>
     <mergeCell ref="L64:P64"/>
     <mergeCell ref="L65:P65"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="Q60:U60"/>
-    <mergeCell ref="V60:Z60"/>
-    <mergeCell ref="AA60:AL60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="Q61:U61"/>
-    <mergeCell ref="V61:Z61"/>
-    <mergeCell ref="AA61:AL61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="Q62:U62"/>
-    <mergeCell ref="V62:Z62"/>
-    <mergeCell ref="AA62:AL62"/>
-    <mergeCell ref="L60:P60"/>
-    <mergeCell ref="L61:P61"/>
-    <mergeCell ref="L62:P62"/>
     <mergeCell ref="G57:K57"/>
     <mergeCell ref="Q57:U57"/>
     <mergeCell ref="V57:Z57"/>
@@ -11707,8 +11711,8 @@
     <mergeCell ref="L25:P25"/>
     <mergeCell ref="Q25:U25"/>
     <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AL22"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AL20"/>
     <mergeCell ref="AA23:AL23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:K24"/>
@@ -11721,17 +11725,10 @@
     <mergeCell ref="L23:P23"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="B10:S13"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="AA18:AL18"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:U20"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="L19:P19"/>
@@ -11743,7 +11740,15 @@
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="B10:S13"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="AA18:AL18"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
@@ -11753,15 +11758,12 @@
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:S5"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="V20:Z21"/>
-    <mergeCell ref="AA20:AL21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="V21:Z22"/>
+    <mergeCell ref="AA21:AL22"/>
+    <mergeCell ref="B21:F22"/>
+    <mergeCell ref="G21:K22"/>
+    <mergeCell ref="L21:P22"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="L6:N6"/>
@@ -11778,6 +11780,8 @@
     <mergeCell ref="Q17:U17"/>
     <mergeCell ref="V17:Z17"/>
     <mergeCell ref="AA17:AL17"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11790,7 +11794,7 @@
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="G19" sqref="G19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11977,7 +11981,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -12000,7 +12004,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -12027,7 +12031,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -12109,7 +12113,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="31"/>
       <c r="AE15" s="31"/>
@@ -12140,14 +12144,14 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
       <c r="U16" s="59"/>
       <c r="V16" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W16" s="59"/>
       <c r="X16" s="59"/>
@@ -12180,7 +12184,7 @@
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
       <c r="G17" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
@@ -12194,7 +12198,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -12232,7 +12236,7 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -12246,7 +12250,7 @@
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -12275,7 +12279,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
@@ -12296,7 +12300,7 @@
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -12332,21 +12336,21 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
@@ -12384,28 +12388,28 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W21" s="76"/>
       <c r="X21" s="76"/>
@@ -12438,28 +12442,28 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
       <c r="L22" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="76"/>
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W22" s="76"/>
       <c r="X22" s="76"/>
@@ -12482,7 +12486,7 @@
     </row>
     <row r="23" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="83"/>
       <c r="C23" s="81"/>
@@ -12527,7 +12531,7 @@
     </row>
     <row r="25" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -12562,17 +12566,17 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="59"/>
@@ -12584,21 +12588,21 @@
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R26" s="59"/>
       <c r="S26" s="59"/>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W26" s="59"/>
       <c r="X26" s="59"/>
       <c r="Y26" s="59"/>
       <c r="Z26" s="59"/>
       <c r="AA26" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
@@ -12617,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -12691,7 +12695,7 @@
     </row>
     <row r="29" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -12726,24 +12730,24 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -12777,35 +12781,35 @@
         <v>1</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="81"/>
       <c r="G31" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M31" s="81"/>
       <c r="N31" s="81"/>
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R31" s="81"/>
       <c r="S31" s="81"/>
       <c r="T31" s="81"/>
       <c r="U31" s="81"/>
       <c r="V31" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W31" s="81"/>
       <c r="X31" s="81"/>
@@ -12859,7 +12863,7 @@
     </row>
     <row r="33" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -12894,17 +12898,17 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -12916,7 +12920,7 @@
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R34" s="59"/>
       <c r="S34" s="59"/>
@@ -12928,7 +12932,7 @@
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
       <c r="AA34" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
@@ -12984,7 +12988,7 @@
     </row>
     <row r="36" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
@@ -13026,17 +13030,17 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -13048,7 +13052,7 @@
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R37" s="59"/>
       <c r="S37" s="59"/>
@@ -13060,7 +13064,7 @@
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
@@ -13116,7 +13120,7 @@
     </row>
     <row r="39" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
@@ -13158,17 +13162,17 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
       <c r="G40" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -13180,7 +13184,7 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R40" s="59"/>
       <c r="S40" s="59"/>
@@ -13192,7 +13196,7 @@
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
@@ -13281,7 +13285,7 @@
     </row>
     <row r="43" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -13316,10 +13320,10 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -13331,7 +13335,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
       <c r="L44" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M44" s="59"/>
       <c r="N44" s="59"/>
@@ -13365,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
@@ -13409,7 +13413,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
@@ -13453,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
@@ -13497,7 +13501,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -13541,7 +13545,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -13585,7 +13589,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -13629,7 +13633,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -13673,7 +13677,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -13717,7 +13721,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -13761,7 +13765,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -13805,7 +13809,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -13849,7 +13853,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -13893,7 +13897,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -13937,7 +13941,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -13981,7 +13985,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -14025,7 +14029,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -14069,7 +14073,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -14113,7 +14117,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -14157,7 +14161,7 @@
         <v>19</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -14201,7 +14205,7 @@
         <v>20</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -14245,7 +14249,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="81"/>
       <c r="D65" s="81"/>
@@ -14738,7 +14742,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -14757,7 +14761,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -14779,7 +14783,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -14861,7 +14865,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -14898,7 +14902,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -14931,14 +14935,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
@@ -14952,7 +14956,7 @@
       <c r="O17" s="76"/>
       <c r="P17" s="76"/>
       <c r="Q17" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="76"/>
       <c r="S17" s="76"/>
@@ -14981,14 +14985,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -15002,7 +15006,7 @@
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -15038,21 +15042,21 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -15092,28 +15096,28 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W20" s="76"/>
       <c r="X20" s="76"/>
@@ -15146,28 +15150,28 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W21" s="76"/>
       <c r="X21" s="76"/>
@@ -15190,7 +15194,7 @@
     </row>
     <row r="22" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="83"/>
       <c r="C22" s="81"/>
@@ -15232,7 +15236,7 @@
     </row>
     <row r="24" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -15243,17 +15247,17 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
@@ -15265,21 +15269,21 @@
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R25" s="59"/>
       <c r="S25" s="59"/>
       <c r="T25" s="59"/>
       <c r="U25" s="59"/>
       <c r="V25" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W25" s="59"/>
       <c r="X25" s="59"/>
       <c r="Y25" s="59"/>
       <c r="Z25" s="59"/>
       <c r="AA25" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
@@ -15298,14 +15302,14 @@
         <v>1</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
@@ -15317,14 +15321,14 @@
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
       <c r="Q26" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R26" s="81"/>
       <c r="S26" s="81"/>
       <c r="T26" s="81"/>
       <c r="U26" s="81"/>
       <c r="V26" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W26" s="81"/>
       <c r="X26" s="81"/>
@@ -15354,7 +15358,7 @@
     </row>
     <row r="28" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -15365,24 +15369,24 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -15416,14 +15420,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="81"/>
       <c r="G30" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="81"/>
@@ -15468,7 +15472,7 @@
     </row>
     <row r="32" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -15479,17 +15483,17 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -15501,7 +15505,7 @@
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
@@ -15513,7 +15517,7 @@
       <c r="Y33" s="59"/>
       <c r="Z33" s="59"/>
       <c r="AA33" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB33" s="59"/>
       <c r="AC33" s="59"/>
@@ -15569,7 +15573,7 @@
     </row>
     <row r="35" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="22"/>
       <c r="G35" s="22"/>
@@ -15599,17 +15603,17 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
       <c r="G36" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -15621,7 +15625,7 @@
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R36" s="59"/>
       <c r="S36" s="59"/>
@@ -15633,7 +15637,7 @@
       <c r="Y36" s="59"/>
       <c r="Z36" s="59"/>
       <c r="AA36" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
@@ -15689,7 +15693,7 @@
     </row>
     <row r="38" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="22"/>
       <c r="G38" s="22"/>
@@ -15719,17 +15723,17 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
       <c r="G39" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="59"/>
       <c r="I39" s="59"/>
@@ -15741,7 +15745,7 @@
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R39" s="59"/>
       <c r="S39" s="59"/>
@@ -15753,7 +15757,7 @@
       <c r="Y39" s="59"/>
       <c r="Z39" s="59"/>
       <c r="AA39" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
@@ -15809,7 +15813,7 @@
     </row>
     <row r="42" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -15820,10 +15824,10 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -15835,7 +15839,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
       <c r="L43" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="59"/>
@@ -15869,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
@@ -15913,7 +15917,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
@@ -15957,7 +15961,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
@@ -16001,7 +16005,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
@@ -16045,7 +16049,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -16089,7 +16093,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -16133,7 +16137,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -16177,7 +16181,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -16221,7 +16225,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -16265,7 +16269,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -16309,7 +16313,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -16353,7 +16357,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -16397,7 +16401,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -16441,7 +16445,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -16485,7 +16489,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -16529,7 +16533,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -16573,7 +16577,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -16617,7 +16621,7 @@
         <v>18</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -16661,7 +16665,7 @@
         <v>19</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -16705,7 +16709,7 @@
         <v>20</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -16749,7 +16753,7 @@
         <v>21</v>
       </c>
       <c r="B64" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="81"/>
       <c r="D64" s="81"/>
@@ -17085,7 +17089,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -17249,7 +17253,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -17272,7 +17276,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -17299,7 +17303,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -17381,7 +17385,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -17418,7 +17422,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -17472,7 +17476,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -17503,28 +17507,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
       <c r="L18" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -17553,28 +17557,28 @@
         <v>3</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -17603,28 +17607,28 @@
         <v>4</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
@@ -17638,7 +17642,7 @@
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
@@ -17657,28 +17661,28 @@
         <v>5</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
@@ -17707,28 +17711,28 @@
         <v>6</v>
       </c>
       <c r="B22" s="136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="130"/>
       <c r="D22" s="130"/>
       <c r="E22" s="130"/>
       <c r="F22" s="130"/>
       <c r="G22" s="130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="130"/>
       <c r="I22" s="130"/>
       <c r="J22" s="130"/>
       <c r="K22" s="130"/>
       <c r="L22" s="130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M22" s="130"/>
       <c r="N22" s="130"/>
       <c r="O22" s="130"/>
       <c r="P22" s="130"/>
       <c r="Q22" s="130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="130"/>
       <c r="S22" s="130"/>
@@ -17742,7 +17746,7 @@
       <c r="Y22" s="130"/>
       <c r="Z22" s="130"/>
       <c r="AA22" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB22" s="139"/>
       <c r="AC22" s="139"/>
@@ -17841,28 +17845,28 @@
         <v>7</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
       <c r="L25" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
       <c r="P25" s="76"/>
       <c r="Q25" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R25" s="76"/>
       <c r="S25" s="76"/>
@@ -17874,7 +17878,7 @@
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
@@ -17893,7 +17897,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -17914,7 +17918,7 @@
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R26" s="76"/>
       <c r="S26" s="76"/>
@@ -17950,21 +17954,21 @@
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
       <c r="J27" s="76"/>
       <c r="K27" s="76"/>
       <c r="L27" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="76"/>
       <c r="N27" s="76"/>
       <c r="O27" s="76"/>
       <c r="P27" s="76"/>
       <c r="Q27" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R27" s="76"/>
       <c r="S27" s="76"/>
@@ -18002,28 +18006,28 @@
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="76"/>
       <c r="I28" s="76"/>
       <c r="J28" s="76"/>
       <c r="K28" s="76"/>
       <c r="L28" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M28" s="76"/>
       <c r="N28" s="76"/>
       <c r="O28" s="76"/>
       <c r="P28" s="76"/>
       <c r="Q28" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R28" s="76"/>
       <c r="S28" s="76"/>
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W28" s="76"/>
       <c r="X28" s="76"/>
@@ -18056,28 +18060,28 @@
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
       <c r="J29" s="76"/>
       <c r="K29" s="76"/>
       <c r="L29" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
       <c r="O29" s="76"/>
       <c r="P29" s="76"/>
       <c r="Q29" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R29" s="76"/>
       <c r="S29" s="76"/>
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W29" s="76"/>
       <c r="X29" s="76"/>
@@ -18100,7 +18104,7 @@
     </row>
     <row r="30" spans="1:38" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="83"/>
       <c r="C30" s="81"/>
@@ -18175,7 +18179,7 @@
     </row>
     <row r="32" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -18210,17 +18214,17 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -18232,21 +18236,21 @@
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W33" s="59"/>
       <c r="X33" s="59"/>
       <c r="Y33" s="59"/>
       <c r="Z33" s="59"/>
       <c r="AA33" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="59"/>
       <c r="AC33" s="59"/>
@@ -18265,7 +18269,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
@@ -18339,7 +18343,7 @@
     </row>
     <row r="36" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -18374,24 +18378,24 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
@@ -18425,35 +18429,35 @@
         <v>1</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
       <c r="G38" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38" s="81"/>
       <c r="I38" s="81"/>
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
       <c r="L38" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M38" s="81"/>
       <c r="N38" s="81"/>
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R38" s="81"/>
       <c r="S38" s="81"/>
       <c r="T38" s="81"/>
       <c r="U38" s="81"/>
       <c r="V38" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W38" s="81"/>
       <c r="X38" s="81"/>
@@ -18507,7 +18511,7 @@
     </row>
     <row r="40" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -18542,17 +18546,17 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
@@ -18564,7 +18568,7 @@
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R41" s="59"/>
       <c r="S41" s="59"/>
@@ -18576,7 +18580,7 @@
       <c r="Y41" s="59"/>
       <c r="Z41" s="59"/>
       <c r="AA41" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB41" s="59"/>
       <c r="AC41" s="59"/>
@@ -18632,7 +18636,7 @@
     </row>
     <row r="43" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
@@ -18674,17 +18678,17 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
       <c r="G44" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
@@ -18696,7 +18700,7 @@
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R44" s="59"/>
       <c r="S44" s="59"/>
@@ -18708,7 +18712,7 @@
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB44" s="59"/>
       <c r="AC44" s="59"/>
@@ -18764,7 +18768,7 @@
     </row>
     <row r="46" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
@@ -18806,17 +18810,17 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
       <c r="G47" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
@@ -18828,7 +18832,7 @@
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R47" s="59"/>
       <c r="S47" s="59"/>
@@ -18840,7 +18844,7 @@
       <c r="Y47" s="59"/>
       <c r="Z47" s="59"/>
       <c r="AA47" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB47" s="59"/>
       <c r="AC47" s="59"/>
@@ -18929,7 +18933,7 @@
     </row>
     <row r="50" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -18964,10 +18968,10 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -18979,7 +18983,7 @@
       <c r="J51" s="59"/>
       <c r="K51" s="59"/>
       <c r="L51" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M51" s="59"/>
       <c r="N51" s="59"/>
@@ -19013,7 +19017,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -19057,7 +19061,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -19101,7 +19105,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -19145,7 +19149,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -19189,7 +19193,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -19233,7 +19237,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -19277,7 +19281,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -19321,7 +19325,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -19365,7 +19369,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -19409,7 +19413,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -19453,7 +19457,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -19497,7 +19501,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -19541,7 +19545,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -19585,7 +19589,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="76"/>
       <c r="D65" s="76"/>
@@ -19629,7 +19633,7 @@
         <v>15</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="76"/>
       <c r="D66" s="76"/>
@@ -19673,7 +19677,7 @@
         <v>16</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="76"/>
       <c r="D67" s="76"/>
@@ -19717,7 +19721,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="76"/>
       <c r="D68" s="76"/>
@@ -19761,7 +19765,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="76"/>
       <c r="D69" s="76"/>
@@ -19805,7 +19809,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="76"/>
       <c r="D70" s="76"/>
@@ -19849,7 +19853,7 @@
         <v>20</v>
       </c>
       <c r="B71" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="76"/>
       <c r="D71" s="76"/>
@@ -19893,7 +19897,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="81"/>
       <c r="D72" s="81"/>
@@ -20260,7 +20264,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
@@ -20271,12 +20275,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>11</v>
@@ -20420,7 +20424,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -20439,7 +20443,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -20541,7 +20545,7 @@
     </row>
     <row r="15" spans="1:38" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -20554,7 +20558,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>6</v>
@@ -20578,7 +20582,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -20632,7 +20636,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -20668,21 +20672,21 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
       <c r="L18" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -20716,21 +20720,21 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -20764,21 +20768,21 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
@@ -20812,21 +20816,21 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
       <c r="L21" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
       <c r="P21" s="76"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
@@ -20860,21 +20864,21 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
       <c r="L22" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="76"/>
@@ -20903,7 +20907,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -20924,7 +20928,7 @@
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="76"/>
@@ -21034,7 +21038,7 @@
     </row>
     <row r="26" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="83"/>
       <c r="C26" s="81"/>
@@ -21076,7 +21080,7 @@
     </row>
     <row r="28" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -21087,17 +21091,17 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>103</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
@@ -21109,21 +21113,21 @@
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R29" s="59"/>
       <c r="S29" s="59"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
@@ -21142,7 +21146,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -21192,7 +21196,7 @@
     </row>
     <row r="32" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -21203,24 +21207,24 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -21254,21 +21258,21 @@
         <v>1</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
       <c r="G34" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="81"/>
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M34" s="81"/>
       <c r="N34" s="81"/>
@@ -21308,7 +21312,7 @@
     </row>
     <row r="36" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -21319,17 +21323,17 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
@@ -21341,7 +21345,7 @@
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R37" s="59"/>
       <c r="S37" s="59"/>
@@ -21353,7 +21357,7 @@
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
@@ -21409,7 +21413,7 @@
     </row>
     <row r="39" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="18"/>
       <c r="G39" s="18"/>
@@ -21439,17 +21443,17 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
       <c r="G40" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -21461,7 +21465,7 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R40" s="59"/>
       <c r="S40" s="59"/>
@@ -21473,7 +21477,7 @@
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
@@ -21529,7 +21533,7 @@
     </row>
     <row r="42" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="18"/>
       <c r="G42" s="18"/>
@@ -21559,17 +21563,17 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
@@ -21581,7 +21585,7 @@
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R43" s="59"/>
       <c r="S43" s="59"/>
@@ -21593,7 +21597,7 @@
       <c r="Y43" s="59"/>
       <c r="Z43" s="59"/>
       <c r="AA43" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB43" s="59"/>
       <c r="AC43" s="59"/>
@@ -21649,7 +21653,7 @@
     </row>
     <row r="46" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -21660,10 +21664,10 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -21675,7 +21679,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
       <c r="L47" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M47" s="59"/>
       <c r="N47" s="59"/>
@@ -21709,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -21753,7 +21757,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -21797,7 +21801,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -21841,7 +21845,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -21885,7 +21889,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -21929,7 +21933,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -21973,7 +21977,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -22017,7 +22021,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -22061,7 +22065,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -22105,7 +22109,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -22149,7 +22153,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -22193,7 +22197,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -22237,7 +22241,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -22281,7 +22285,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -22325,7 +22329,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -22369,7 +22373,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -22413,7 +22417,7 @@
         <v>17</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -22457,7 +22461,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="76"/>
       <c r="D65" s="76"/>
@@ -22501,7 +22505,7 @@
         <v>19</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="76"/>
       <c r="D66" s="76"/>
@@ -22545,7 +22549,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="76"/>
       <c r="D67" s="76"/>
@@ -22589,7 +22593,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="81"/>
       <c r="D68" s="81"/>
@@ -22951,13 +22955,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -23103,7 +23107,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
       <c r="G8" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -23121,7 +23125,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -23143,7 +23147,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -23225,7 +23229,7 @@
     </row>
     <row r="15" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -23260,7 +23264,7 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
@@ -23314,7 +23318,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
@@ -23345,28 +23349,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
       <c r="L18" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
       <c r="P18" s="76"/>
       <c r="Q18" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R18" s="76"/>
       <c r="S18" s="76"/>
@@ -23397,28 +23401,28 @@
         <v>3</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="76"/>
       <c r="L19" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
       <c r="P19" s="76"/>
       <c r="Q19" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="76"/>
       <c r="S19" s="76"/>
@@ -23449,28 +23453,28 @@
         <v>4</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
       <c r="L20" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
       <c r="P20" s="76"/>
       <c r="Q20" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="76"/>
@@ -23501,7 +23505,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
@@ -23522,7 +23526,7 @@
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
@@ -23558,21 +23562,21 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
       <c r="L22" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="76"/>
@@ -23610,28 +23614,28 @@
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76"/>
       <c r="J23" s="76"/>
       <c r="K23" s="76"/>
       <c r="L23" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
       <c r="P23" s="76"/>
       <c r="Q23" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="76"/>
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W23" s="76"/>
       <c r="X23" s="76"/>
@@ -23664,28 +23668,28 @@
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
       <c r="L24" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="76"/>
       <c r="P24" s="76"/>
       <c r="Q24" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R24" s="76"/>
       <c r="S24" s="76"/>
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W24" s="76"/>
       <c r="X24" s="76"/>
@@ -23708,7 +23712,7 @@
     </row>
     <row r="25" spans="1:38" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="83"/>
       <c r="C25" s="81"/>
@@ -23753,7 +23757,7 @@
     </row>
     <row r="27" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -23764,17 +23768,17 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -23786,21 +23790,21 @@
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R28" s="59"/>
       <c r="S28" s="59"/>
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
       <c r="Y28" s="59"/>
       <c r="Z28" s="59"/>
       <c r="AA28" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
@@ -23819,7 +23823,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -23869,7 +23873,7 @@
     </row>
     <row r="31" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -23880,24 +23884,24 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" s="59"/>
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
@@ -23931,21 +23935,21 @@
         <v>1</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
       <c r="G33" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M33" s="81"/>
       <c r="N33" s="81"/>
@@ -23985,7 +23989,7 @@
     </row>
     <row r="35" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -23996,17 +24000,17 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
       <c r="G36" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -24018,7 +24022,7 @@
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R36" s="59"/>
       <c r="S36" s="59"/>
@@ -24030,7 +24034,7 @@
       <c r="Y36" s="59"/>
       <c r="Z36" s="59"/>
       <c r="AA36" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
@@ -24086,7 +24090,7 @@
     </row>
     <row r="38" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="27"/>
       <c r="G38" s="27"/>
@@ -24116,17 +24120,17 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
       <c r="G39" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H39" s="59"/>
       <c r="I39" s="59"/>
@@ -24138,7 +24142,7 @@
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R39" s="59"/>
       <c r="S39" s="59"/>
@@ -24150,7 +24154,7 @@
       <c r="Y39" s="59"/>
       <c r="Z39" s="59"/>
       <c r="AA39" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
@@ -24206,7 +24210,7 @@
     </row>
     <row r="41" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="27"/>
       <c r="G41" s="27"/>
@@ -24236,17 +24240,17 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
       <c r="G42" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -24258,7 +24262,7 @@
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R42" s="59"/>
       <c r="S42" s="59"/>
@@ -24270,7 +24274,7 @@
       <c r="Y42" s="59"/>
       <c r="Z42" s="59"/>
       <c r="AA42" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB42" s="59"/>
       <c r="AC42" s="59"/>
@@ -24326,7 +24330,7 @@
     </row>
     <row r="45" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -24337,10 +24341,10 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -24352,7 +24356,7 @@
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
       <c r="L46" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M46" s="59"/>
       <c r="N46" s="59"/>
@@ -24386,7 +24390,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
@@ -24430,7 +24434,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
@@ -24474,7 +24478,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
@@ -24518,7 +24522,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
@@ -24562,7 +24566,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
@@ -24606,7 +24610,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -24650,7 +24654,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
@@ -24694,7 +24698,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
@@ -24738,7 +24742,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -24782,7 +24786,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="76"/>
@@ -24826,7 +24830,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="76"/>
@@ -24870,7 +24874,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -24914,7 +24918,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -24958,7 +24962,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -25002,7 +25006,7 @@
         <v>15</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>
@@ -25046,7 +25050,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="76"/>
@@ -25090,7 +25094,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
@@ -25134,7 +25138,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -25178,7 +25182,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="76"/>
       <c r="D65" s="76"/>
@@ -25222,7 +25226,7 @@
         <v>20</v>
       </c>
       <c r="B66" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="76"/>
       <c r="D66" s="76"/>
@@ -25266,7 +25270,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="81"/>
       <c r="D67" s="81"/>
